--- a/biology/Botanique/Begonia_hirtella/Begonia_hirtella.xlsx
+++ b/biology/Botanique/Begonia_hirtella/Begonia_hirtella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia hirtella est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire d'Amérique du Sud et des Caraïbes. L'espèce fait partie de la section Ephemera. Elle a été décrite en 1822 par Heinrich Friedrich Link (1767-1851). L'épithète spécifique hirtella signifie « plutôt hirsute[2] », c'est-à-dire modérément garnie de poils raides et épais.
-En 2018, l'espèce a été assignée à une nouvelle section Ephemera, au cycle annuel, au lieu de la section Doratometra[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia hirtella est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire d'Amérique du Sud et des Caraïbes. L'espèce fait partie de la section Ephemera. Elle a été décrite en 1822 par Heinrich Friedrich Link (1767-1851). L'épithète spécifique hirtella signifie « plutôt hirsute », c'est-à-dire modérément garnie de poils raides et épais.
+En 2018, l'espèce a été assignée à une nouvelle section Ephemera, au cycle annuel, au lieu de la section Doratometra.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Vue d'ensemble d'un spécimen photographié à Hawaii
@@ -548,9 +562,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire des pays suivants : Brésil ; Colombie ; Guadeloupe ; Jamaïque ; Martinique ; Pérou. Elle s'est naturalisée dans les Indes occidentales[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire des pays suivants : Brésil ; Colombie ; Guadeloupe ; Jamaïque ; Martinique ; Pérou. Elle s'est naturalisée dans les Indes occidentales.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (6 février 2017)[5] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (6 février 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Begonia hirtella var. hirtella
 variété Begonia hirtella var. nana (Walp.) A. DC.</t>
         </is>
